--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Ruby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_085DF1BFD368701FEE6A001440245E3FB48F8939" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01FB57E-5E6A-44D3-882F-58204AEEA045}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_085D9F7751607A0F6D4160F44E245E3FB48F8FDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D084D4-E097-4521-A16B-7B06B7C5D6DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3084" windowWidth="20340" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1476" yWindow="2640" windowWidth="13524" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -59,6 +59,30 @@
     <t>amount</t>
   </si>
   <si>
+    <t>JMART</t>
+  </si>
+  <si>
+    <t>3,200</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>8.46</t>
+  </si>
+  <si>
+    <t>-2.13%</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>27,072.00</t>
+  </si>
+  <si>
     <t>PTT</t>
   </si>
   <si>
@@ -68,74 +92,20 @@
     <t>33.00</t>
   </si>
   <si>
-    <t>32.50</t>
-  </si>
-  <si>
-    <t>29.70</t>
-  </si>
-  <si>
-    <t>-1.52%</t>
+    <t>32.25</t>
+  </si>
+  <si>
+    <t>-2.27%</t>
   </si>
   <si>
     <t>2025-01-31</t>
-  </si>
-  <si>
-    <t>74,250.00</t>
-  </si>
-  <si>
-    <t>JMART</t>
-  </si>
-  <si>
-    <t>3,200</t>
-  </si>
-  <si>
-    <t>24.10</t>
-  </si>
-  <si>
-    <t>9.30</t>
-  </si>
-  <si>
-    <t>21.69</t>
-  </si>
-  <si>
-    <t>-61.41%</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>69,408.00</t>
-  </si>
-  <si>
-    <t>WHAIR</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
-    <t>49,500.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +117,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,15 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,17 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="3"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -529,7 +500,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -555,7 +526,7 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -572,50 +543,24 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
+      <c r="H3" s="2">
+        <f>B3*E3</f>
+        <v>80000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:H4" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:H2 B3:D3 F3:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -1,135 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Ruby/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_085D9F7751607A0F6D4160F44E245E3FB48F8FDC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D084D4-E097-4521-A16B-7B06B7C5D6DA}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="2640" windowWidth="13524" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>sell_price</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>%decline</t>
-  </si>
-  <si>
-    <t>sell_date</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>JMART</t>
-  </si>
-  <si>
-    <t>3,200</t>
-  </si>
-  <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>8.46</t>
-  </si>
-  <si>
-    <t>-2.13%</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>27,072.00</t>
-  </si>
-  <si>
-    <t>PTT</t>
-  </si>
-  <si>
-    <t>2,500</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>-2.27%</t>
-  </si>
-  <si>
-    <t>2025-01-31</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,98 +420,230 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sell_price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>%decline</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sell_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IVL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>37,098.00</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2">
-        <f>B3*E3</f>
-        <v>80000</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JMART</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3,200</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.53%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27,072.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GVREIT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-0.75%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>36,180.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WHAIR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>49,500.00</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:H2 B3:D3 F3:G3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -1,37 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Ruby/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_085D596F537E945FE27AF43444245E3FB48F8881" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AEB3490-8CAF-42DD-9B65-2C23566E0DF9}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="5724" windowWidth="12468" windowHeight="6432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sell_date</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>sell_price</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>%decline</t>
+  </si>
+  <si>
+    <t>IVL</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>1,800</t>
+  </si>
+  <si>
+    <t>22.90</t>
+  </si>
+  <si>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>20.61</t>
+  </si>
+  <si>
+    <t>-0.44%</t>
+  </si>
+  <si>
+    <t>JMART</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>3,200</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>9.35</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>8.46</t>
+  </si>
+  <si>
+    <t>-0.53%</t>
+  </si>
+  <si>
+    <t>GVREIT</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>6,000</t>
+  </si>
+  <si>
+    <t>6.70</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>-0.75%</t>
+  </si>
+  <si>
+    <t>WHAIR</t>
+  </si>
+  <si>
+    <t>10,000</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +171,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,230 +495,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>qty</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sell_price</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>%decline</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sell_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>IVL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1,800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>22.90</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-0.44%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>37,098.00</t>
-        </is>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>JMART</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3,200</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-0.53%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-08-07</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>27,072.00</t>
-        </is>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GVREIT</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6,000</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.75%</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-08-08</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>36,180.00</t>
-        </is>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WHAIR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>10,000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>49,500.00</t>
-        </is>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:H5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -1,162 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Ruby/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_085D596F537E945FE27AF43444245E3FB48F8881" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AEB3490-8CAF-42DD-9B65-2C23566E0DF9}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5724" windowWidth="12468" windowHeight="6432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>sell_date</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>sell_price</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>%decline</t>
-  </si>
-  <si>
-    <t>IVL</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
-    <t>1,800</t>
-  </si>
-  <si>
-    <t>22.90</t>
-  </si>
-  <si>
-    <t>22.80</t>
-  </si>
-  <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>20.61</t>
-  </si>
-  <si>
-    <t>-0.44%</t>
-  </si>
-  <si>
-    <t>JMART</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>3,200</t>
-  </si>
-  <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>9.35</t>
-  </si>
-  <si>
-    <t>8.75</t>
-  </si>
-  <si>
-    <t>8.46</t>
-  </si>
-  <si>
-    <t>-0.53%</t>
-  </si>
-  <si>
-    <t>GVREIT</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>6,000</t>
-  </si>
-  <si>
-    <t>6.70</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>6.55</t>
-  </si>
-  <si>
-    <t>6.03</t>
-  </si>
-  <si>
-    <t>-0.75%</t>
-  </si>
-  <si>
-    <t>WHAIR</t>
-  </si>
-  <si>
-    <t>10,000</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>5.45</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -495,152 +420,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>sell_date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>qty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sell_price</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>%decline</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WHAIR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-0.91%</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>-2.42%</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JMART</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3,200</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>-4.79%</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="C2:H5" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,84 +478,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>2,800</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.91%</t>
+          <t>-0.86%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>ORI</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30.25</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-2.42%</t>
+          <t>-0.97%</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,217 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-4.79%</t>
+          <t>-13.30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IVL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,800</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-3.06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GVREIT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-3.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-7.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WHAIR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,116 +488,116 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>-1.77%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>1,800</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>22.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>20.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>20.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-1.77%</t>
+          <t>-11.35%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-1.82%</t>
+          <t>-12.23%</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,133 +639,133 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-11.29%</t>
+          <t>-12.90%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-13.30%</t>
+          <t>-2.73%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>2,800</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-3.73%</t>
+          <t>-3.45%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1,800</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.10</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>21.10</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-7.86%</t>
+          <t>-5.97%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,158 +488,158 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>2,800</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.77%</t>
+          <t>-0.86%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,800</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-11.35%</t>
+          <t>-10.64%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-12.23%</t>
+          <t>-12.90%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-12.90%</t>
+          <t>-2.21%</t>
         </is>
       </c>
     </row>
@@ -688,42 +688,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>1,800</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>22.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>21.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>20.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-3.45%</t>
+          <t>-6.11%</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-5.97%</t>
+          <t>-6.72%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.86%</t>
+          <t>-1.72%</t>
         </is>
       </c>
     </row>
@@ -540,14 +540,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>8.40</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>8.46</t>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-10.64%</t>
+          <t>-10.11%</t>
         </is>
       </c>
     </row>
@@ -582,14 +582,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>27.00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>26.50</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>27.90</t>
@@ -597,175 +597,133 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-12.90%</t>
+          <t>-12.10%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-2.21%</t>
+          <t>-2.73%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-2.73%</t>
+          <t>-4.87%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,800</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-6.11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GVREIT</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-08-08</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6,000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-6.72%</t>
+          <t>-5.22%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,210 +478,210 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>1,800</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>22.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>22.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>22.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>-0.44%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>2,800</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>10.44</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-10.11%</t>
+          <t>-1.72%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>27.25</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-12.10%</t>
+          <t>-1.82%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-2.73%</t>
+          <t>-11.17%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>26.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>26.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-4.87%</t>
+          <t>-13.71%</t>
         </is>
       </c>
     </row>
@@ -708,14 +708,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>6.35</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>6.03</t>
@@ -723,7 +723,91 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-5.22%</t>
+          <t>-4.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-4.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,334 +478,250 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,800</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.80</t>
+          <t>24.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22.60</t>
+          <t>24.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>-0.41%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JMT</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2,800</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>26.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-1.72%</t>
+          <t>-12.90%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-1.82%</t>
+          <t>-3.73%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-11.17%</t>
+          <t>-3.98%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.75</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>26.75</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-13.71%</t>
+          <t>-8.51%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>-4.48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NER</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-08-06</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-4.87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CPF</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-08-22</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>24.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.20</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24.10</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,14 +513,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.41%</t>
+          <t>-1.23%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,200 +530,158 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>26.75</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-12.90%</t>
+          <t>-3.73%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-3.73%</t>
+          <t>-4.87%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-3.98%</t>
+          <t>-9.04%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>27.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-8.51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>WHAIR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10,000</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00%</t>
+          <t>-9.68%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,19 +513,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.23%</t>
+          <t>-1.65%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,153 +535,279 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-3.73%</t>
+          <t>-1.79%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-4.87%</t>
+          <t>-11.17%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>1,800</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>22.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>22.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-9.04%</t>
+          <t>-3.06%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-5.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GVREIT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-7.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>RCL</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>2025-08-08</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>3,000</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>31.00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>27.90</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-9.68%</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-8.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WHAIR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -478,84 +478,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPF</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.65%</t>
+          <t>-1.19%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>-1.65%</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -597,140 +597,140 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-11.17%</t>
+          <t>-10.11%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>ORI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1,800</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22.10</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-3.06%</t>
+          <t>-4.35%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>1,800</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>22.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-5.75%</t>
+          <t>-4.37%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-7.46%</t>
+          <t>-5.31%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -740,74 +740,74 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-8.87%</t>
+          <t>-7.46%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>28.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>27.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-9.68%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -498,14 +498,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>8.30</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>7.56</t>
@@ -513,49 +513,49 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.19%</t>
+          <t>-0.60%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CPF</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>31.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>27.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>27.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>27.90</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-1.65%</t>
+          <t>-11.29%</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-10.11%</t>
+          <t>-12.23%</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-4.35%</t>
+          <t>-5.22%</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>21.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-4.37%</t>
+          <t>-5.24%</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-5.31%</t>
+          <t>-5.75%</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -772,42 +772,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>27.75</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-9.68%</t>
+          <t>-9.88%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -478,49 +478,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>฿24.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>฿21.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>฿21.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>฿21.87</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-0.60%</t>
+          <t>-9.88%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,158 +530,158 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>฿6.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>฿6.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>฿6.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>฿6.03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-11.29%</t>
+          <t>-7.46%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>1,800</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>฿22.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>฿21.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>฿21.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>฿20.61</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-12.23%</t>
+          <t>-5.24%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORI</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>฿9.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>฿8.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>฿8.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>฿8.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-5.22%</t>
+          <t>-12.23%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1,800</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>฿8.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.70</t>
+          <t>฿8.35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21.70</t>
+          <t>฿8.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20.61</t>
+          <t>฿7.56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-5.24%</t>
+          <t>-0.60%</t>
         </is>
       </c>
     </row>
@@ -703,22 +703,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>฿4.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>฿4.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>฿4.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>฿4.07</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,84 +730,84 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>ORI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>฿2.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>฿2.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>฿2.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>฿2.07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-7.46%</t>
+          <t>-5.22%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CPF</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24.30</t>
+          <t>฿31.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>฿27.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>฿27.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21.87</t>
+          <t>฿27.90</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-9.88%</t>
+          <t>-11.29%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>฿21.90</t>
+          <t>฿22.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>฿21.90</t>
+          <t>฿22.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-9.88%</t>
+          <t>-7.82%</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>฿21.70</t>
+          <t>฿21.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>฿21.70</t>
+          <t>฿21.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-5.24%</t>
+          <t>-4.37%</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>฿8.25</t>
+          <t>฿8.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>฿8.25</t>
+          <t>฿8.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-12.23%</t>
+          <t>-9.57%</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>฿8.35</t>
+          <t>฿8.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>฿8.30</t>
+          <t>฿8.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-0.60%</t>
+          <t>-1.79%</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>฿4.26</t>
+          <t>฿4.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>฿4.26</t>
+          <t>฿4.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-5.75%</t>
+          <t>-4.87%</t>
         </is>
       </c>
     </row>
@@ -750,14 +750,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>฿2.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>฿2.18</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>฿2.16</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>฿2.07</t>
@@ -765,7 +765,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-5.22%</t>
+          <t>-3.48%</t>
         </is>
       </c>
     </row>
@@ -792,12 +792,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>฿27.50</t>
+          <t>฿27.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>฿27.50</t>
+          <t>฿26.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -807,7 +807,49 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-11.29%</t>
+          <t>-12.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WHAIR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>฿5.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>฿5.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>฿5.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>฿4.95</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>฿22.40</t>
+          <t>฿22.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-7.82%</t>
+          <t>-8.23%</t>
         </is>
       </c>
     </row>
@@ -540,14 +540,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>฿6.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>฿6.20</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>฿6.20</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>฿6.03</t>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-7.46%</t>
+          <t>-6.72%</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>฿21.90</t>
+          <t>฿21.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>฿21.90</t>
+          <t>฿21.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-4.37%</t>
+          <t>-4.80%</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>฿8.50</t>
+          <t>฿9.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>฿8.35</t>
+          <t>฿8.45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-9.57%</t>
+          <t>-3.72%</t>
         </is>
       </c>
     </row>
@@ -666,14 +666,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>฿8.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>฿8.25</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>฿8.20</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>฿7.56</t>
@@ -681,7 +681,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -708,14 +708,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>฿4.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>฿4.30</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>฿4.28</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>฿4.07</t>
@@ -723,7 +723,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-4.87%</t>
+          <t>-3.54%</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>฿2.18</t>
+          <t>฿2.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>฿5.50</t>
+          <t>฿5.45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.91%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>฿22.30</t>
+          <t>฿22.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>฿22.20</t>
+          <t>฿21.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-8.23%</t>
+          <t>-7.41%</t>
         </is>
       </c>
     </row>
@@ -540,14 +540,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>฿6.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>฿6.25</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>฿6.20</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>฿6.03</t>
@@ -555,7 +555,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-6.72%</t>
+          <t>-5.97%</t>
         </is>
       </c>
     </row>
@@ -582,12 +582,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>฿21.80</t>
+          <t>฿22.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>฿21.70</t>
+          <t>฿21.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -597,259 +597,133 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-4.80%</t>
+          <t>-3.49%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JMART</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-07</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3,200</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>฿9.40</t>
+          <t>฿4.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>฿9.05</t>
+          <t>฿4.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>฿8.45</t>
+          <t>฿4.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>฿8.46</t>
+          <t>฿4.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-3.72%</t>
+          <t>-1.33%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>฿8.40</t>
+          <t>฿31.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>฿8.40</t>
+          <t>฿27.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>฿8.25</t>
+          <t>฿27.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>฿7.56</t>
+          <t>฿27.90</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-12.10%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>฿4.52</t>
+          <t>฿5.50</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>฿4.36</t>
+          <t>฿5.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>฿4.30</t>
+          <t>฿5.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>฿4.07</t>
+          <t>฿4.95</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-3.54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ORI</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-08-28</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>฿2.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>฿2.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>฿2.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>฿2.07</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-3.48%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RCL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-08-08</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3,000</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>฿31.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>฿27.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>฿26.75</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>฿27.90</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>-12.90%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>WHAIR</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10,000</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>฿5.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>฿5.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>฿5.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>฿4.95</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>-0.91%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,49 +478,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPF</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>฿24.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>฿22.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>฿21.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>฿21.87</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-7.41%</t>
-        </is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-6.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,41 +516,29 @@
           <t>2025-08-08</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6,000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>฿6.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>฿6.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>฿6.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>฿6.03</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-5.97%</t>
-        </is>
+      <c r="C3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-13.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IVL</t>
+          <t>WHAIR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,161 +546,23 @@
           <t>2025-07-30</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1,800</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>฿22.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>฿22.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>฿21.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>฿20.61</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>-3.49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NER</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-08-06</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5,000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>฿4.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>฿4.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>฿4.38</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>฿4.07</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>-1.33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RCL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-08-08</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3,000</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>฿31.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>฿27.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>฿27.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>฿27.90</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-12.10%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>WHAIR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-30</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10,000</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>฿5.50</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>฿5.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>฿5.45</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>฿4.95</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="C4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,37 +478,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>6.7</v>
+        <v>23.4</v>
       </c>
       <c r="E2" t="n">
-        <v>6.25</v>
+        <v>23.1</v>
       </c>
       <c r="F2" t="n">
-        <v>6.25</v>
+        <v>23.1</v>
       </c>
       <c r="G2" t="n">
-        <v>6.03</v>
+        <v>21.06</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.72</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -517,51 +517,81 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>6.7</v>
       </c>
       <c r="E3" t="n">
-        <v>26.75</v>
+        <v>6.3</v>
       </c>
       <c r="F3" t="n">
-        <v>26.5</v>
+        <v>6.3</v>
       </c>
       <c r="G3" t="n">
-        <v>27.9</v>
+        <v>6.03</v>
       </c>
       <c r="H3" t="n">
-        <v>-13.71</v>
+        <v>-5.97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-12.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>WHAIR</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>2025-07-30</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10000</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>5.5</v>
       </c>
-      <c r="F4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G5" t="n">
         <v>4.95</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -496,7 +496,7 @@
         <v>23.1</v>
       </c>
       <c r="F2" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
         <v>21.06</v>
@@ -523,7 +523,7 @@
         <v>6.7</v>
       </c>
       <c r="E3" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F3" t="n">
         <v>6.3</v>
@@ -532,67 +532,67 @@
         <v>6.03</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.97</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>4.52</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="n">
-        <v>26.5</v>
+        <v>4.44</v>
       </c>
       <c r="G4" t="n">
-        <v>27.9</v>
+        <v>4.07</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.9</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WHAIR</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D5" t="n">
-        <v>5.5</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>5.5</v>
+        <v>28.25</v>
       </c>
       <c r="F5" t="n">
-        <v>5.5</v>
+        <v>27.25</v>
       </c>
       <c r="G5" t="n">
-        <v>4.95</v>
+        <v>27.9</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-8.869999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,121 +478,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CPF</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D2" t="n">
-        <v>23.4</v>
+        <v>6.7</v>
       </c>
       <c r="E2" t="n">
-        <v>23.1</v>
+        <v>6.4</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>6.4</v>
       </c>
       <c r="G2" t="n">
-        <v>21.06</v>
+        <v>6.03</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.28</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D3" t="n">
-        <v>6.7</v>
+        <v>4.52</v>
       </c>
       <c r="E3" t="n">
-        <v>6.4</v>
+        <v>4.48</v>
       </c>
       <c r="F3" t="n">
-        <v>6.3</v>
+        <v>4.48</v>
       </c>
       <c r="G3" t="n">
-        <v>6.03</v>
+        <v>4.07</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.48</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D4" t="n">
-        <v>4.52</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>4.5</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>4.44</v>
+        <v>28.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4.07</v>
+        <v>27.9</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RCL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-08-08</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31</v>
-      </c>
-      <c r="E5" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-8.869999999999999</v>
+        <v>-6.45</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>6.7</v>
       </c>
       <c r="E2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="F2" t="n">
         <v>6.4</v>
@@ -502,7 +502,7 @@
         <v>6.03</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.48</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="3">
@@ -523,16 +523,16 @@
         <v>4.52</v>
       </c>
       <c r="E3" t="n">
-        <v>4.48</v>
+        <v>4.44</v>
       </c>
       <c r="F3" t="n">
-        <v>4.48</v>
+        <v>4.42</v>
       </c>
       <c r="G3" t="n">
         <v>4.07</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.88</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +553,46 @@
         <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>28.25</v>
       </c>
       <c r="F4" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
         <v>27.9</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.45</v>
+        <v>-8.869999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TVO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.97</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,121 +478,181 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GVREIT</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>6.7</v>
+        <v>23.4</v>
       </c>
       <c r="E2" t="n">
-        <v>6.5</v>
+        <v>23.2</v>
       </c>
       <c r="F2" t="n">
-        <v>6.4</v>
+        <v>22.8</v>
       </c>
       <c r="G2" t="n">
-        <v>6.03</v>
+        <v>21.06</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.99</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>GVREIT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D3" t="n">
-        <v>4.52</v>
+        <v>6.7</v>
       </c>
       <c r="E3" t="n">
-        <v>4.44</v>
+        <v>6.5</v>
       </c>
       <c r="F3" t="n">
-        <v>4.42</v>
+        <v>6.45</v>
       </c>
       <c r="G3" t="n">
-        <v>4.07</v>
+        <v>6.03</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.77</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>MCS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>8.4</v>
       </c>
       <c r="E4" t="n">
-        <v>28.25</v>
+        <v>8.4</v>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>8.4</v>
       </c>
       <c r="G4" t="n">
-        <v>27.9</v>
+        <v>7.56</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.869999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-6.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-11.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>TVO</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2025-09-15</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C7" t="n">
         <v>4000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" t="n">
         <v>25.75</v>
       </c>
-      <c r="E5" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25</v>
+      </c>
+      <c r="G7" t="n">
         <v>23.18</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.97</v>
+      <c r="H7" t="n">
+        <v>-2.91</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,121 +538,271 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MCS</t>
+          <t>IVL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="D4" t="n">
-        <v>8.4</v>
+        <v>22.9</v>
       </c>
       <c r="E4" t="n">
-        <v>8.4</v>
+        <v>20.9</v>
       </c>
       <c r="F4" t="n">
-        <v>8.4</v>
+        <v>20.8</v>
       </c>
       <c r="G4" t="n">
-        <v>7.56</v>
+        <v>20.61</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>JMART</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-08-06</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5000</v>
+        <v>3200</v>
       </c>
       <c r="D5" t="n">
-        <v>4.52</v>
+        <v>9.4</v>
       </c>
       <c r="E5" t="n">
-        <v>4.24</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.07</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.19</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>JMT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-08</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>11.6</v>
       </c>
       <c r="E6" t="n">
-        <v>27.5</v>
+        <v>11.6</v>
       </c>
       <c r="F6" t="n">
-        <v>27.5</v>
+        <v>11.5</v>
       </c>
       <c r="G6" t="n">
-        <v>27.9</v>
+        <v>10.44</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>MCS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-6.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ORI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-2.21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>TVO</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>2025-09-15</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
         <v>4000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>25.75</v>
       </c>
-      <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>25</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E11" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G11" t="n">
         <v>23.18</v>
       </c>
-      <c r="H7" t="n">
-        <v>-2.91</v>
+      <c r="H11" t="n">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WHART</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -493,7 +493,7 @@
         <v>23.4</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="F2" t="n">
         <v>22.8</v>
@@ -502,7 +502,7 @@
         <v>21.06</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.85</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="3">
@@ -553,16 +553,16 @@
         <v>22.9</v>
       </c>
       <c r="E4" t="n">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="F4" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="G4" t="n">
         <v>20.61</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.73</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="5">
@@ -583,16 +583,16 @@
         <v>9.4</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="G5" t="n">
         <v>8.460000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.26</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>11.6</v>
       </c>
       <c r="E6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F6" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="G6" t="n">
         <v>10.44</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="7">
@@ -643,16 +643,16 @@
         <v>8.4</v>
       </c>
       <c r="E7" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F7" t="n">
         <v>8.25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>7.56</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.79</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="8">
@@ -676,7 +676,7 @@
         <v>4.24</v>
       </c>
       <c r="F8" t="n">
-        <v>4.24</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
         <v>4.07</v>
@@ -703,16 +703,16 @@
         <v>2.72</v>
       </c>
       <c r="E9" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="n">
         <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.21</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         <v>24.9</v>
       </c>
       <c r="F11" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="G11" t="n">
         <v>23.18</v>
@@ -793,16 +793,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="F12" t="n">
-        <v>9.65</v>
+        <v>9.6</v>
       </c>
       <c r="G12" t="n">
         <v>8.73</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,16 +493,16 @@
         <v>23.4</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9</v>
+        <v>21.8</v>
       </c>
       <c r="F2" t="n">
-        <v>22.8</v>
+        <v>21.7</v>
       </c>
       <c r="G2" t="n">
         <v>21.06</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.14</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="3">
@@ -553,16 +553,16 @@
         <v>22.9</v>
       </c>
       <c r="E4" t="n">
-        <v>21.5</v>
+        <v>19.9</v>
       </c>
       <c r="F4" t="n">
-        <v>21.1</v>
+        <v>19.8</v>
       </c>
       <c r="G4" t="n">
         <v>20.61</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.11</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="5">
@@ -583,16 +583,16 @@
         <v>9.4</v>
       </c>
       <c r="E5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="F5" t="n">
-        <v>8.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G5" t="n">
         <v>8.460000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.38</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>11.6</v>
       </c>
       <c r="E6" t="n">
-        <v>11.4</v>
+        <v>10.3</v>
       </c>
       <c r="F6" t="n">
-        <v>11.3</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>10.44</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.72</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="7">
@@ -643,16 +643,16 @@
         <v>8.4</v>
       </c>
       <c r="E7" t="n">
-        <v>8.35</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>8.25</v>
+        <v>8.15</v>
       </c>
       <c r="G7" t="n">
         <v>7.56</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.6</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         <v>4.52</v>
       </c>
       <c r="E8" t="n">
-        <v>4.24</v>
+        <v>4.1</v>
       </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>4.08</v>
       </c>
       <c r="G8" t="n">
         <v>4.07</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.19</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -703,16 +703,16 @@
         <v>2.72</v>
       </c>
       <c r="E9" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="G9" t="n">
         <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.68</v>
+        <v>-13.24</v>
       </c>
     </row>
     <row r="10">
@@ -733,16 +733,16 @@
         <v>26.5</v>
       </c>
       <c r="E10" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="F10" t="n">
-        <v>26.25</v>
+        <v>25.25</v>
       </c>
       <c r="G10" t="n">
         <v>23.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="11">
@@ -763,46 +763,16 @@
         <v>25.75</v>
       </c>
       <c r="E11" t="n">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="F11" t="n">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="G11" t="n">
         <v>23.18</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>WHART</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-09-15</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-0.52</v>
+        <v>-6.41</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,16 +493,16 @@
         <v>23.4</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="F2" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="G2" t="n">
         <v>21.06</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.84</v>
+        <v>-7.26</v>
       </c>
     </row>
     <row r="3">
@@ -553,16 +553,16 @@
         <v>22.9</v>
       </c>
       <c r="E4" t="n">
-        <v>19.9</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
       <c r="G4" t="n">
         <v>20.61</v>
       </c>
       <c r="H4" t="n">
-        <v>-13.1</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -583,16 +583,16 @@
         <v>9.4</v>
       </c>
       <c r="E5" t="n">
-        <v>8.25</v>
+        <v>8.1</v>
       </c>
       <c r="F5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="G5" t="n">
         <v>8.460000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.23</v>
+        <v>-13.83</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +613,7 @@
         <v>11.6</v>
       </c>
       <c r="E6" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>10.44</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.21</v>
+        <v>-13.79</v>
       </c>
     </row>
     <row r="7">
@@ -643,7 +643,7 @@
         <v>8.4</v>
       </c>
       <c r="E7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="F7" t="n">
         <v>8.15</v>
@@ -652,7 +652,7 @@
         <v>7.56</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.38</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         <v>4.52</v>
       </c>
       <c r="E8" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F8" t="n">
         <v>4.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.08</v>
       </c>
       <c r="G8" t="n">
         <v>4.07</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.289999999999999</v>
+        <v>-8.41</v>
       </c>
     </row>
     <row r="9">
@@ -703,16 +703,16 @@
         <v>2.72</v>
       </c>
       <c r="E9" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="F9" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
         <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>-13.24</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="10">
@@ -733,16 +733,16 @@
         <v>26.5</v>
       </c>
       <c r="E10" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F10" t="n">
         <v>25.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25.25</v>
       </c>
       <c r="G10" t="n">
         <v>23.85</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.77</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="11">
@@ -763,7 +763,7 @@
         <v>25.75</v>
       </c>
       <c r="E11" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>23.8</v>
@@ -772,7 +772,37 @@
         <v>23.18</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.41</v>
+        <v>-6.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WHART</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>

--- a/Ruby/watch-list-buys.xlsx
+++ b/Ruby/watch-list-buys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,16 +493,16 @@
         <v>23.4</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
       <c r="F2" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="G2" t="n">
         <v>21.06</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.26</v>
+        <v>-9.83</v>
       </c>
     </row>
     <row r="3">
@@ -526,7 +526,7 @@
         <v>6.5</v>
       </c>
       <c r="F3" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="G3" t="n">
         <v>6.03</v>
@@ -553,16 +553,16 @@
         <v>22.9</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>19.1</v>
       </c>
       <c r="F4" t="n">
-        <v>20.7</v>
+        <v>19.1</v>
       </c>
       <c r="G4" t="n">
         <v>20.61</v>
       </c>
       <c r="H4" t="n">
-        <v>-8.300000000000001</v>
+        <v>-16.59</v>
       </c>
     </row>
     <row r="5">
@@ -583,16 +583,16 @@
         <v>9.4</v>
       </c>
       <c r="E5" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="F5" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="G5" t="n">
         <v>8.460000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>-13.83</v>
+        <v>-17.02</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>11.6</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>9.65</v>
       </c>
       <c r="G6" t="n">
         <v>10.44</v>
       </c>
       <c r="H6" t="n">
-        <v>-13.79</v>
+        <v>-15.95</v>
       </c>
     </row>
     <row r="7">
@@ -643,16 +643,16 @@
         <v>8.4</v>
       </c>
       <c r="E7" t="n">
-        <v>8.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>8.15</v>
+        <v>8.1</v>
       </c>
       <c r="G7" t="n">
         <v>7.56</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.79</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         <v>4.52</v>
       </c>
       <c r="E8" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F8" t="n">
         <v>4.14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.1</v>
       </c>
       <c r="G8" t="n">
         <v>4.07</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.41</v>
+        <v>-7.96</v>
       </c>
     </row>
     <row r="9">
@@ -703,106 +703,136 @@
         <v>2.72</v>
       </c>
       <c r="E9" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
         <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>-15.44</v>
+        <v>-16.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>PTT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="D10" t="n">
-        <v>26.5</v>
+        <v>31.25</v>
       </c>
       <c r="E10" t="n">
-        <v>25.75</v>
+        <v>30.75</v>
       </c>
       <c r="F10" t="n">
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
       <c r="G10" t="n">
-        <v>23.85</v>
+        <v>28.12</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.83</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TVO</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D11" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E11" t="n">
         <v>25.75</v>
       </c>
-      <c r="E11" t="n">
-        <v>24</v>
-      </c>
       <c r="F11" t="n">
-        <v>23.8</v>
+        <v>25.5</v>
       </c>
       <c r="G11" t="n">
-        <v>23.18</v>
+        <v>23.85</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.8</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>TVO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23.18</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-6.02</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>WHART</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2025-09-15</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>5000</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="E12" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F12" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="E13" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G13" t="n">
         <v>8.73</v>
       </c>
-      <c r="H12" t="n">
-        <v>-0.52</v>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
